--- a/DB/All-at-once_DB.xlsx
+++ b/DB/All-at-once_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herth-joh01\Documents\GitHub_repo\SR_app\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B9CE0C-9E37-453D-93E5-9E9A72B5D556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34FFD8B-F73E-4A70-B884-4FAA3BD4848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,8 +929,8 @@
   <dimension ref="A1:M2341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2344" sqref="J2344"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I151" sqref="I151:J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5984,7 +5984,7 @@
         <v>8.2100000000000006E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>12</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>12</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>12</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>2.76E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>12</v>
       </c>
@@ -6118,13 +6118,13 @@
         <v>10</v>
       </c>
       <c r="J148" s="4">
-        <v>1.2978862381395553E-2</v>
+        <v>9.1555413170338103E-3</v>
       </c>
       <c r="K148" s="6">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>12</v>
       </c>
@@ -6153,13 +6153,13 @@
         <v>20</v>
       </c>
       <c r="J149" s="4">
-        <v>9.1556364576698031E-3</v>
+        <v>2.1787611157977238E-3</v>
       </c>
       <c r="K149" s="6">
-        <v>3.6400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>12</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>12</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>12</v>
       </c>
@@ -6258,13 +6258,13 @@
         <v>200</v>
       </c>
       <c r="J152" s="4">
-        <v>7.0928659596080241E-6</v>
+        <v>1.0784121035056469E-5</v>
       </c>
       <c r="K152" s="6">
-        <v>6.6699999999999995E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>12</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0.10639999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>12</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>12</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>12</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>12</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>12</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>12</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>12</v>
       </c>
@@ -11155,7 +11155,7 @@
       <c r="J293" s="4"/>
       <c r="K293" s="6"/>
     </row>
-    <row r="294" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>12</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>12</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>12</v>
       </c>
@@ -11256,7 +11256,7 @@
       <c r="J296" s="4"/>
       <c r="K296" s="6"/>
     </row>
-    <row r="297" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>12</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>2.41E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>12</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>12</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>3.8300000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>12</v>
       </c>
@@ -83543,7 +83543,7 @@
   <autoFilter ref="A1:K2341" xr:uid="{69188C03-5484-4556-BA5F-D844034CCCEC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="C4 [U(93.2) (H/235U = 0)]"/>
+        <filter val="C1 [U(4.95)O2F2 (H/235U = 410)]"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -83558,12 +83558,12 @@
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="10"/>
+        <filter val="20"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">
       <filters>
-        <filter val="P"/>
+        <filter val="N"/>
       </filters>
     </filterColumn>
   </autoFilter>
